--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_37.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77247.57236573556</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77247.57236573556</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1264131797.204313</v>
+        <v>45554522.58913909</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12602.02933947051</v>
+        <v>960380.8838470298</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25018.06663505676</v>
+        <v>1886786.254005454</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37436.9764417564</v>
+        <v>2813191.624163879</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50100.20349366723</v>
+        <v>3738668.475103261</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62763.43054557806</v>
+        <v>4664145.326042644</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>75426.58757423745</v>
+        <v>5589622.176982025</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>88089.81462614825</v>
+        <v>6515099.0279214</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>100753.0377836397</v>
+        <v>7440575.878860777</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>113416.2648355506</v>
+        <v>8366052.729800154</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>126079.4918874614</v>
+        <v>9291529.58073953</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>138742.7189393723</v>
+        <v>10217006.43167891</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>151405.9459912831</v>
+        <v>11142483.28261829</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>164069.1030199425</v>
+        <v>12067960.13355768</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>176732.3300718533</v>
+        <v>12993436.98449707</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>189395.5571237644</v>
+        <v>13918913.83543646</v>
       </c>
     </row>
   </sheetData>
